--- a/data/outputs/management/73.xlsx
+++ b/data/outputs/management/73.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ82"/>
+  <dimension ref="A1:BR82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>4861148</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1118,6 +1128,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1321,6 +1332,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1548,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1743,6 +1756,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1950,6 +1964,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2161,6 +2176,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2364,6 +2380,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2555,6 +2572,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2758,6 +2776,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>57246803</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2965,6 +2988,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3184,6 +3208,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3387,6 +3412,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3594,6 +3620,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>3092041</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3797,6 +3828,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>3983145</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4012,6 +4048,11 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>4970645</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4227,6 +4268,11 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>3385633</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4450,6 +4496,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4937945</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4645,6 +4696,11 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>4718953</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4840,6 +4896,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4916175</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5039,6 +5100,11 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>4559120</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5254,6 +5320,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5473,6 +5540,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4191618</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5676,6 +5748,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5883,6 +5956,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6090,6 +6164,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6301,6 +6376,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4561021</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6524,6 +6604,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6731,6 +6812,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4413157</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6950,6 +7036,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7169,6 +7256,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7372,6 +7460,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7583,6 +7672,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7794,6 +7884,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3027390</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7985,6 +8080,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8200,6 +8296,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8399,6 +8496,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8614,6 +8712,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>4188130</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8833,6 +8936,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9056,6 +9160,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9283,6 +9388,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9478,6 +9584,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9697,6 +9804,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9932,6 +10040,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10139,6 +10248,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10350,6 +10460,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10553,6 +10664,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10744,6 +10856,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10935,6 +11048,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11146,6 +11260,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>18688783</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11349,6 +11468,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11560,6 +11680,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>4094863</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11787,6 +11912,11 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>2270425</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11994,6 +12124,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>4011158</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12201,6 +12336,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12412,6 +12548,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>3732688</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12631,6 +12772,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>4303259</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12846,6 +12992,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>3763626</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13053,6 +13204,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>2609150</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13248,6 +13404,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13459,6 +13616,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>2374092</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13670,6 +13832,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13877,6 +14040,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14100,6 +14264,11 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>64216528</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14319,6 +14488,11 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>20030356</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14534,6 +14708,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14753,6 +14928,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14956,6 +15132,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15163,6 +15340,11 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>3219421</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15370,6 +15552,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15581,6 +15764,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>3769263</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15760,6 +15948,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15951,6 +16140,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16166,6 +16356,11 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>3761438</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16369,6 +16564,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16572,6 +16768,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16779,6 +16976,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16998,6 +17196,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17201,6 +17400,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17392,6 +17592,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17583,6 +17784,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
